--- a/sdaas/data/190412_TG_ITrim2019.xlsx
+++ b/sdaas/data/190412_TG_ITrim2019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
   <si>
     <t>Target</t>
   </si>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">Gennaio/marzo 2019 </t>
   </si>
   <si>
-    <t>MEDIA GIORNO E SERA</t>
+    <t>MEDIA TG (Giorno e sera)</t>
   </si>
 </sst>
 </file>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,6 +246,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,8 +256,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -556,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,10 +573,9 @@
     <col min="3" max="3" width="42.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -582,23 +586,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -620,11 +624,8 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -646,12 +647,8 @@
       <c r="G5" s="1">
         <v>3258</v>
       </c>
-      <c r="H5" s="15">
-        <f>AVERAGE(C5,C18)</f>
-        <v>4581282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -673,12 +670,8 @@
       <c r="G6" s="1">
         <v>2617</v>
       </c>
-      <c r="H6" s="15">
-        <f t="shared" ref="H6:H12" si="0">AVERAGE(C6,C19)</f>
-        <v>1967759.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -700,12 +693,8 @@
       <c r="G7" s="1">
         <v>2970</v>
       </c>
-      <c r="H7" s="15">
-        <f t="shared" si="0"/>
-        <v>1943319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -727,12 +716,8 @@
       <c r="G8" s="1">
         <v>2993</v>
       </c>
-      <c r="H8" s="15">
-        <f t="shared" si="0"/>
-        <v>523283.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -754,12 +739,8 @@
       <c r="G9" s="1">
         <v>3067</v>
       </c>
-      <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>3706589.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -781,12 +762,8 @@
       <c r="G10" s="1">
         <v>2419</v>
       </c>
-      <c r="H10" s="15">
-        <f t="shared" si="0"/>
-        <v>1106231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -808,12 +785,8 @@
       <c r="G11" s="1">
         <v>2869</v>
       </c>
-      <c r="H11" s="15">
-        <f t="shared" si="0"/>
-        <v>976106.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -835,16 +808,12 @@
       <c r="G12" s="1">
         <v>1743</v>
       </c>
-      <c r="H12" s="15">
-        <f t="shared" si="0"/>
-        <v>2589866.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="C13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -867,16 +836,16 @@
         <v>21938</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
@@ -1108,80 +1077,238 @@
         <v>22865</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="11" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B35" s="1">
         <v>63165</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>0.59</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B36" s="1">
         <v>69116</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.6399999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B37" s="1">
         <v>37010</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>0.34</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="B38" s="1"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="11">
+        <f>AVERAGE(C5,C18)</f>
+        <v>4581282</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="11">
+        <f>AVERAGE(C6,C19)</f>
+        <v>1967759.5</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="11">
+        <f>AVERAGE(C7,C20)</f>
+        <v>1943319</v>
+      </c>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="11">
+        <f>AVERAGE(C8,C21)</f>
+        <v>523283.5</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="11">
+        <f>AVERAGE(C9,C22)</f>
+        <v>3706589.5</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="11">
+        <f>AVERAGE(C10,C23)</f>
+        <v>1106231</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="11">
+        <f>AVERAGE(C11,C24)</f>
+        <v>976106.5</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="11">
+        <f>AVERAGE(C12,C25)</f>
+        <v>2589866.5</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="3:7">
+      <c r="C49" s="1"/>
+      <c r="D49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1227,15 +1354,15 @@
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
